--- a/Ejemplo de CI detallado.xlsx
+++ b/Ejemplo de CI detallado.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Desktop\New folder (5)\Ecommerce-Sports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="48" windowWidth="15420" windowHeight="11088" tabRatio="331" activeTab="1"/>
+    <workbookView xWindow="13380" yWindow="45" windowWidth="15420" windowHeight="11085" tabRatio="331" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CI S1" sheetId="9" r:id="rId1"/>
-    <sheet name="CI S2 (3)" sheetId="13" r:id="rId2"/>
-    <sheet name="CI S3 (2)" sheetId="12" r:id="rId3"/>
-    <sheet name="Informe" sheetId="14" r:id="rId4"/>
+    <sheet name="CI S2" sheetId="13" r:id="rId2"/>
+    <sheet name="CI S3" sheetId="12" r:id="rId3"/>
+    <sheet name="Informe S2" sheetId="14" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="178">
   <si>
     <t>Semana 3</t>
   </si>
@@ -226,18 +231,12 @@
     <t>PM</t>
   </si>
   <si>
-    <t>Análisis:</t>
-  </si>
-  <si>
     <t>Indicadores</t>
   </si>
   <si>
     <t>Fórmulas</t>
   </si>
   <si>
-    <t>Análisis/Descripción</t>
-  </si>
-  <si>
     <t>Firma</t>
   </si>
   <si>
@@ -518,6 +517,42 @@
   </si>
   <si>
     <t>Estamos al inicio de la semana 1</t>
+  </si>
+  <si>
+    <t>Análisis/Dcripción</t>
+  </si>
+  <si>
+    <t>20/9/2020</t>
+  </si>
+  <si>
+    <t>Franco Borsani</t>
+  </si>
+  <si>
+    <t>E-commerce Sports</t>
+  </si>
+  <si>
+    <t>El SV es igual a 0, lo que significa que no estamos atrasados o adelantados frente al calendario.</t>
+  </si>
+  <si>
+    <t>Como es mayor a 0, significa que estimamos mal. Mas especificamente, estimamos una 1:45 horas de más.</t>
+  </si>
+  <si>
+    <t>Cada hora de trabajo rinde 1 hora.</t>
+  </si>
+  <si>
+    <t>Cada recurso invertido en el proyecto rinde 1,26. Si bien lo más optimo seria 1, la diferencia no estan grande, por lo que nos esta indicando que podemos mejorar.</t>
+  </si>
+  <si>
+    <t>Luego del trabajo realizado esta semana el costo actual refleja que se estimo más tiempo de lo que en realidad llevaron esas actividades, concretamente 1:45 de más.</t>
+  </si>
+  <si>
+    <t>El EV quedo alineado con el PV. Esto quiere decir que alcanzamos a completar todas las actividades hasta el momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis: A pesar de haber estimado tiempo de más, consideramos que por el momento no estamos retrasados en cuanto a lo planificado </t>
+  </si>
+  <si>
+    <t>Las actividades se realizan con la regla de avance 0/100</t>
   </si>
   <si>
     <r>
@@ -532,19 +567,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Finalizamos la segunda semana, si bien no pudimos completar todas las actividades de la semana 1 ( 1.3.3.1 ; 1.3.3.2 ; 1.3.3.4)  , las mismas fueron finalizadas en la semana 2 satisfactoriamente. En cuanto a las actividades de la segunda semana fueron completadas.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -613,6 +648,23 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -684,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1137,12 +1189,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,58 +1409,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,28 +1440,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1448,83 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1404,45 +1553,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1452,9 +1562,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,7 +1646,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1501,7 +1676,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S2 (3)'!$G$80:$G$83</c:f>
+              <c:f>'CI S2'!$G$80:$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1521,20 +1696,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S2 (3)'!$H$80:$H$83</c:f>
+              <c:f>'CI S2'!$H$80:$H$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4114-40B6-A6DC-2C013209E325}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1547,7 +1727,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S2 (3)'!$G$80:$G$83</c:f>
+              <c:f>'CI S2'!$G$80:$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1567,20 +1747,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S2 (3)'!$I$80:$I$83</c:f>
+              <c:f>'CI S2'!$I$80:$I$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4114-40B6-A6DC-2C013209E325}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1593,7 +1778,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S2 (3)'!$G$80:$G$83</c:f>
+              <c:f>'CI S2'!$G$80:$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1613,20 +1798,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S2 (3)'!$J$80:$J$83</c:f>
+              <c:f>'CI S2'!$J$80:$J$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.5</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4114-40B6-A6DC-2C013209E325}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1636,7 +1826,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="125564416"/>
         <c:axId val="129613824"/>
@@ -1648,6 +1837,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1693,7 +1883,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1723,7 +1913,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S3 (2)'!$G$109:$G$112</c:f>
+              <c:f>'CI S3'!$G$109:$G$112</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1743,23 +1933,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S3 (2)'!$H$109:$H$112</c:f>
+              <c:f>'CI S3'!$H$109:$H$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D06B-4B65-BD45-52494FF79E3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1772,7 +1967,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S3 (2)'!$G$109:$G$112</c:f>
+              <c:f>'CI S3'!$G$109:$G$112</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1792,23 +1987,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S3 (2)'!$I$109:$I$112</c:f>
+              <c:f>'CI S3'!$I$109:$I$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D06B-4B65-BD45-52494FF79E3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1821,7 +2021,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S3 (2)'!$G$109:$G$112</c:f>
+              <c:f>'CI S3'!$G$109:$G$112</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1841,7 +2041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S3 (2)'!$J$109:$J$112</c:f>
+              <c:f>'CI S3'!$J$109:$J$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1858,6 +2058,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D06B-4B65-BD45-52494FF79E3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1867,7 +2072,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="135113728"/>
         <c:axId val="135205632"/>
@@ -1879,6 +2083,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1924,7 +2129,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1964,7 +2169,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S2 (3)'!$G$80:$G$83</c:f>
+              <c:f>'CI S2'!$G$80:$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1984,20 +2189,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S2 (3)'!$H$80:$H$83</c:f>
+              <c:f>'CI S2'!$H$80:$H$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31E2-4F75-9B05-3196603471FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2008,9 +2218,19 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-0E78-45C4-99D6-EDE7E897CAC2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S2 (3)'!$G$80:$G$83</c:f>
+              <c:f>'CI S2'!$G$80:$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2030,20 +2250,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S2 (3)'!$I$80:$I$83</c:f>
+              <c:f>'CI S2'!$I$80:$I$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31E2-4F75-9B05-3196603471FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2056,7 +2281,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'CI S2 (3)'!$G$80:$G$83</c:f>
+              <c:f>'CI S2'!$G$80:$G$83</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2076,20 +2301,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CI S2 (3)'!$J$80:$J$83</c:f>
+              <c:f>'CI S2'!$J$80:$J$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.5</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31E2-4F75-9B05-3196603471FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2099,7 +2329,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="157401856"/>
         <c:axId val="157403392"/>
@@ -2111,6 +2340,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2462,75 +2692,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView showGridLines="0" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.44140625" style="1"/>
-    <col min="8" max="22" width="11.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="22" width="11.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="76" t="s">
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="95"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="73" t="s">
+      <c r="R1" s="95"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="75"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="96"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -2574,18 +2804,18 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -2632,13 +2862,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="9"/>
@@ -2660,17 +2890,17 @@
       <c r="U4" s="39"/>
       <c r="V4" s="39"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
@@ -2694,15 +2924,15 @@
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>17</v>
@@ -2741,15 +2971,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="13"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>17</v>
@@ -2758,13 +2988,13 @@
         <v>17</v>
       </c>
       <c r="H7" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="21"/>
@@ -2777,26 +3007,26 @@
       <c r="S7" s="21"/>
       <c r="T7" s="39">
         <f t="shared" ref="T7:T32" si="0">SUM(H7+K7+N7+Q7)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="39">
         <f t="shared" ref="U7:U32" si="1">SUM(I7+L7+O7+R7)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="39">
         <f t="shared" ref="V7:V32" si="2">SUM(J7+M7+P7+S7)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>17</v>
@@ -2835,15 +3065,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>17</v>
@@ -2852,13 +3082,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="21"/>
@@ -2871,26 +3101,26 @@
       <c r="S9" s="21"/>
       <c r="T9" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U9" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V9" s="39">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>17</v>
@@ -2929,17 +3159,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>17</v>
@@ -2972,15 +3202,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>17</v>
@@ -3019,15 +3249,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>17</v>
@@ -3036,13 +3266,13 @@
         <v>17</v>
       </c>
       <c r="H13" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="21"/>
@@ -3055,26 +3285,26 @@
       <c r="S13" s="21"/>
       <c r="T13" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U13" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V13" s="39">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>17</v>
@@ -3113,15 +3343,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="29"/>
       <c r="C15" s="32"/>
       <c r="D15" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>17</v>
@@ -3130,13 +3360,13 @@
         <v>17</v>
       </c>
       <c r="H15" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="21"/>
@@ -3149,26 +3379,26 @@
       <c r="S15" s="21"/>
       <c r="T15" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U15" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V15" s="39">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>17</v>
@@ -3207,17 +3437,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>17</v>
@@ -3250,15 +3480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>17</v>
@@ -3297,15 +3527,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>17</v>
@@ -3314,13 +3544,13 @@
         <v>17</v>
       </c>
       <c r="H19" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J19" s="50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="21"/>
@@ -3333,26 +3563,26 @@
       <c r="S19" s="21"/>
       <c r="T19" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U19" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V19" s="39">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>17</v>
@@ -3391,15 +3621,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="29"/>
       <c r="C21" s="32"/>
       <c r="D21" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>17</v>
@@ -3408,13 +3638,13 @@
         <v>17</v>
       </c>
       <c r="H21" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J21" s="49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
@@ -3427,26 +3657,26 @@
       <c r="S21" s="32"/>
       <c r="T21" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U21" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V21" s="39">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>17</v>
@@ -3485,13 +3715,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="47">
@@ -3528,17 +3758,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>17</v>
@@ -3546,12 +3776,8 @@
       <c r="G24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="50">
-        <v>0.5</v>
-      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="50"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
@@ -3564,26 +3790,26 @@
       <c r="S24" s="32"/>
       <c r="T24" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U24" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V24" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>110</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>112</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>17</v>
@@ -3622,17 +3848,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>17</v>
@@ -3640,12 +3866,8 @@
       <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="50">
-        <v>1</v>
-      </c>
-      <c r="I26" s="50">
-        <v>1</v>
-      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
@@ -3658,26 +3880,26 @@
       <c r="S26" s="32"/>
       <c r="T26" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>17</v>
@@ -3716,15 +3938,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>17</v>
@@ -3763,17 +3985,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>17</v>
@@ -3781,12 +4003,8 @@
       <c r="G29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50">
-        <v>1</v>
-      </c>
-      <c r="I29" s="50">
-        <v>1</v>
-      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="50"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
@@ -3799,26 +4017,26 @@
       <c r="S29" s="32"/>
       <c r="T29" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>17</v>
@@ -3857,17 +4075,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>17</v>
@@ -3875,12 +4093,8 @@
       <c r="G31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="50">
-        <v>0.5</v>
-      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="50"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -3893,26 +4107,26 @@
       <c r="S31" s="32"/>
       <c r="T31" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U31" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V31" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>17</v>
@@ -3951,7 +4165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
@@ -3961,41 +4175,41 @@
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="84">
+      <c r="H33" s="59">
         <f>SUM(H6:H32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I33" s="85">
+        <v>8.5</v>
+      </c>
+      <c r="I33" s="60">
         <f>SUM(I6:I32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="J33" s="84">
+        <v>8.5</v>
+      </c>
+      <c r="J33" s="59">
         <f>SUM(J6:J32)</f>
+        <v>6.75</v>
+      </c>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="62">
+        <f>SUM(T6:T32)</f>
         <v>8.5</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="87">
-        <f>SUM(T6:T32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="U33" s="87">
+      <c r="U33" s="62">
         <f>SUM(U6:U32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="V33" s="87">
+        <v>8.5</v>
+      </c>
+      <c r="V33" s="62">
         <f>SUM(V6:V32)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
@@ -4005,32 +4219,32 @@
       </c>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="84">
+      <c r="H34" s="59">
         <f>SUM(H6:H32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I34" s="85">
+        <v>8.5</v>
+      </c>
+      <c r="I34" s="60">
         <f>SUM(I6:I32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="J34" s="84">
+        <v>8.5</v>
+      </c>
+      <c r="J34" s="59">
         <f>SUM(J6:J32)</f>
-        <v>8.5</v>
-      </c>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6.75</v>
+      </c>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
@@ -4054,20 +4268,20 @@
       <c r="U35" s="41"/>
       <c r="V35" s="41"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="26"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
       <c r="P36" s="41"/>
@@ -4078,7 +4292,7 @@
       <c r="U36" s="41"/>
       <c r="V36" s="41"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
@@ -4102,7 +4316,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="42"/>
       <c r="C38" s="43"/>
@@ -4111,187 +4325,167 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="G39" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="G40" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="G41" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
+    <row r="39" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="136"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="132"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="132"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="132"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G43" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="64"/>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G44" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G45" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D47" s="24"/>
     </row>
-    <row r="48" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D48" s="24"/>
     </row>
-    <row r="49" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D49" s="24"/>
     </row>
-    <row r="50" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D50" s="24"/>
       <c r="G50" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="93">
+      <c r="H50" s="68">
         <f>E56-E54</f>
         <v>0</v>
       </c>
-      <c r="I50" s="58" t="s">
+      <c r="I50" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="58"/>
-      <c r="K50" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="62"/>
-    </row>
-    <row r="51" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D51" s="82"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="84"/>
+    </row>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D51" s="58"/>
       <c r="G51" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="93">
+      <c r="H51" s="68">
         <f>E56-E55</f>
         <v>0</v>
       </c>
-      <c r="I51" s="58" t="s">
+      <c r="I51" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J51" s="58"/>
-      <c r="K51" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="62"/>
-    </row>
-    <row r="52" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D52" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="81"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="84"/>
+    </row>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D52" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="99"/>
       <c r="G52" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="93" t="e">
+      <c r="H52" s="68" t="e">
         <f>E56/E54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="58" t="s">
+      <c r="I52" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J52" s="58"/>
-      <c r="K52" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="62"/>
-    </row>
-    <row r="53" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="J52" s="80"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="84"/>
+    </row>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D53" s="25" t="s">
         <v>31</v>
       </c>
@@ -4300,27 +4494,25 @@
       <c r="G53" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="93" t="e">
+      <c r="H53" s="68" t="e">
         <f>E56/E55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I53" s="58" t="s">
+      <c r="I53" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="58"/>
-      <c r="K53" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="62"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="84"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
     </row>
-    <row r="54" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D54" s="36" t="s">
         <v>12</v>
       </c>
@@ -4329,27 +4521,25 @@
       <c r="G54" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="93">
+      <c r="H54" s="68">
         <f>E53-E56</f>
         <v>0</v>
       </c>
-      <c r="I54" s="58" t="s">
+      <c r="I54" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J54" s="58"/>
-      <c r="K54" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="L54" s="61"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="62"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="84"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26"/>
     </row>
-    <row r="55" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D55" s="38" t="s">
         <v>14</v>
       </c>
@@ -4358,27 +4548,25 @@
       <c r="G55" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="93" t="e">
+      <c r="H55" s="68" t="e">
         <f>(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="58" t="s">
+      <c r="I55" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="J55" s="58"/>
-      <c r="K55" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="62"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="84"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
     </row>
-    <row r="56" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D56" s="36" t="s">
         <v>13</v>
       </c>
@@ -4387,103 +4575,95 @@
       <c r="G56" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="93">
+      <c r="H56" s="68">
         <f>E55+(E53-E56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="58" t="s">
+      <c r="I56" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="58"/>
-      <c r="K56" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="62"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="84"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
     </row>
-    <row r="57" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F57" s="26"/>
       <c r="G57" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="93" t="e">
+      <c r="H57" s="68" t="e">
         <f>E53/H53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="58" t="s">
+      <c r="I57" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="59"/>
-      <c r="K57" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="62"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="84"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
     </row>
-    <row r="58" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F58" s="26"/>
       <c r="G58" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="93" t="e">
+      <c r="H58" s="68" t="e">
         <f>E55+(E53-E56)/(H52*H53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="58" t="s">
+      <c r="I58" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J58" s="59"/>
-      <c r="K58" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="62"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="84"/>
       <c r="R58" s="26"/>
       <c r="S58" s="26"/>
     </row>
-    <row r="59" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
       <c r="G59" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="93" t="e">
+      <c r="H59" s="68" t="e">
         <f>(E53-E56)/(E53-E55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="58" t="s">
+      <c r="I59" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="J59" s="59"/>
-      <c r="K59" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="62"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="84"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
     </row>
-    <row r="60" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
@@ -4500,7 +4680,7 @@
       <c r="R60" s="26"/>
       <c r="S60" s="26"/>
     </row>
-    <row r="61" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
@@ -4517,7 +4697,7 @@
       <c r="R61" s="26"/>
       <c r="S61" s="26"/>
     </row>
-    <row r="62" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
@@ -4534,7 +4714,7 @@
       <c r="R62" s="26"/>
       <c r="S62" s="26"/>
     </row>
-    <row r="63" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -4551,7 +4731,7 @@
       <c r="R63" s="26"/>
       <c r="S63" s="26"/>
     </row>
-    <row r="64" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
@@ -4568,7 +4748,7 @@
       <c r="R64" s="26"/>
       <c r="S64" s="26"/>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
@@ -4585,7 +4765,7 @@
       <c r="R65" s="26"/>
       <c r="S65" s="26"/>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
@@ -4602,7 +4782,7 @@
       <c r="R66" s="26"/>
       <c r="S66" s="26"/>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
       <c r="G67" s="26"/>
@@ -4619,7 +4799,7 @@
       <c r="R67" s="26"/>
       <c r="S67" s="26"/>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
@@ -4636,7 +4816,7 @@
       <c r="R68" s="26"/>
       <c r="S68" s="26"/>
     </row>
-    <row r="69" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
@@ -4653,7 +4833,7 @@
       <c r="R69" s="26"/>
       <c r="S69" s="26"/>
     </row>
-    <row r="70" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
@@ -4670,7 +4850,7 @@
       <c r="R70" s="26"/>
       <c r="S70" s="26"/>
     </row>
-    <row r="71" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
       <c r="H71" s="26"/>
@@ -4687,12 +4867,15 @@
       <c r="S71" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="G45:M45"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K52:Q52"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A42:E42"/>
@@ -4703,6 +4886,7 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G36:M36"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="A1:A3"/>
@@ -4713,9 +4897,6 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K52:Q52"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:Q53"/>
     <mergeCell ref="I54:J54"/>
@@ -4740,75 +4921,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView showGridLines="0" topLeftCell="E73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74:Q74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.44140625" style="1"/>
-    <col min="8" max="22" width="11.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="22" width="11.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="76" t="s">
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="95"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="73" t="s">
+      <c r="R1" s="95"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="75"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="96"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -4852,18 +5033,18 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
       <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -4910,13 +5091,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="31"/>
@@ -4947,17 +5128,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
-      <c r="B5" s="29" t="s">
-        <v>78</v>
+      <c r="B5" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
@@ -4978,7 +5159,7 @@
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="39">
-        <f t="shared" ref="T4:V5" si="0">H5+K5+N5+Q5</f>
+        <f t="shared" ref="T5:V5" si="0">H5+K5+N5+Q5</f>
         <v>0</v>
       </c>
       <c r="U5" s="39">
@@ -4990,15 +5171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>17</v>
@@ -5015,7 +5196,7 @@
       <c r="J6" s="49">
         <v>0.5</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="39"/>
@@ -5037,15 +5218,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>17</v>
@@ -5054,17 +5235,23 @@
         <v>17</v>
       </c>
       <c r="H7" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="49">
+        <v>0</v>
+      </c>
+      <c r="K7" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="21">
         <v>0.25</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
@@ -5084,15 +5271,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>17</v>
@@ -5109,7 +5296,7 @@
       <c r="J8" s="49">
         <v>0.25</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="39"/>
@@ -5131,15 +5318,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>17</v>
@@ -5148,17 +5335,23 @@
         <v>17</v>
       </c>
       <c r="H9" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="49">
+        <v>0</v>
+      </c>
+      <c r="K9" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="21">
         <v>0.25</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -5178,15 +5371,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>17</v>
@@ -5203,7 +5396,7 @@
       <c r="J10" s="49">
         <v>0.25</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="39"/>
@@ -5225,17 +5418,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
-      <c r="B11" s="29" t="s">
-        <v>97</v>
+      <c r="B11" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>17</v>
@@ -5246,7 +5439,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="49"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="39"/>
@@ -5268,15 +5461,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>17</v>
@@ -5293,7 +5486,7 @@
       <c r="J12" s="49">
         <v>0.5</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="39"/>
@@ -5315,15 +5508,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>17</v>
@@ -5332,17 +5525,23 @@
         <v>17</v>
       </c>
       <c r="H13" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="49">
+        <v>0</v>
+      </c>
+      <c r="K13" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="21">
         <v>0.25</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -5362,15 +5561,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>17</v>
@@ -5387,7 +5586,7 @@
       <c r="J14" s="49">
         <v>0.25</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="39"/>
@@ -5409,15 +5608,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="29"/>
       <c r="C15" s="32"/>
       <c r="D15" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>17</v>
@@ -5426,17 +5625,23 @@
         <v>17</v>
       </c>
       <c r="H15" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="49">
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="21">
         <v>0.25</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
@@ -5456,15 +5661,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>17</v>
@@ -5481,7 +5686,7 @@
       <c r="J16" s="49">
         <v>0.25</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="39"/>
@@ -5503,17 +5708,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>17</v>
@@ -5524,7 +5729,7 @@
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="49"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="39"/>
@@ -5546,15 +5751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>17</v>
@@ -5571,7 +5776,7 @@
       <c r="J18" s="50">
         <v>0.5</v>
       </c>
-      <c r="K18" s="32"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="39"/>
@@ -5593,15 +5798,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>17</v>
@@ -5610,17 +5815,23 @@
         <v>17</v>
       </c>
       <c r="H19" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J19" s="50">
+        <v>0</v>
+      </c>
+      <c r="K19" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="21">
         <v>0.25</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
@@ -5640,15 +5851,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>17</v>
@@ -5665,9 +5876,9 @@
       <c r="J20" s="50">
         <v>0.25</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
       <c r="P20" s="40"/>
@@ -5687,15 +5898,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="29"/>
       <c r="C21" s="32"/>
       <c r="D21" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>17</v>
@@ -5704,17 +5915,23 @@
         <v>17</v>
       </c>
       <c r="H21" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J21" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="47">
+        <v>0.5</v>
+      </c>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="40"/>
@@ -5734,15 +5951,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>17</v>
@@ -5759,9 +5976,9 @@
       <c r="J22" s="49">
         <v>0.5</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
       <c r="P22" s="40"/>
@@ -5781,13 +5998,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="47">
@@ -5802,9 +6019,9 @@
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
@@ -5824,17 +6041,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>17</v>
@@ -5842,16 +6059,12 @@
       <c r="G24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="50">
-        <v>0.5</v>
-      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
@@ -5860,26 +6073,26 @@
       <c r="S24" s="32"/>
       <c r="T24" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U24" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V24" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>110</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>112</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>17</v>
@@ -5896,9 +6109,9 @@
       <c r="J25" s="50">
         <v>1</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
@@ -5918,17 +6131,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>17</v>
@@ -5936,16 +6149,12 @@
       <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="50">
-        <v>1</v>
-      </c>
-      <c r="I26" s="50">
-        <v>1</v>
-      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="50"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
@@ -5954,26 +6163,26 @@
       <c r="S26" s="32"/>
       <c r="T26" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>17</v>
@@ -5990,9 +6199,9 @@
       <c r="J27" s="50">
         <v>0.5</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
@@ -6012,15 +6221,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>17</v>
@@ -6037,9 +6246,9 @@
       <c r="J28" s="50">
         <v>0.5</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
@@ -6059,17 +6268,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>17</v>
@@ -6077,16 +6286,12 @@
       <c r="G29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50">
-        <v>1</v>
-      </c>
-      <c r="I29" s="50">
-        <v>1</v>
-      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="50"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="40"/>
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
@@ -6095,26 +6300,26 @@
       <c r="S29" s="32"/>
       <c r="T29" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>17</v>
@@ -6131,9 +6336,9 @@
       <c r="J30" s="50">
         <v>1</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
@@ -6153,17 +6358,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>17</v>
@@ -6171,16 +6376,12 @@
       <c r="G31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="50">
-        <v>0.5</v>
-      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="50"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="40"/>
       <c r="O31" s="40"/>
       <c r="P31" s="40"/>
@@ -6189,26 +6390,26 @@
       <c r="S31" s="32"/>
       <c r="T31" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U31" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V31" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>17</v>
@@ -6225,9 +6426,9 @@
       <c r="J32" s="50">
         <v>0.5</v>
       </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="40"/>
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
@@ -6247,13 +6448,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="45">
@@ -6269,8 +6470,8 @@
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
       <c r="K33" s="45"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="40"/>
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
@@ -6290,12 +6491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="45">
         <v>0.5</v>
@@ -6309,13 +6510,13 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
-      <c r="K34" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="M34" s="51">
+      <c r="K34" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="79">
         <v>2</v>
       </c>
       <c r="N34" s="40"/>
@@ -6337,12 +6538,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" s="45">
         <v>0.5</v>
@@ -6356,13 +6557,13 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
-      <c r="K35" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="M35" s="51">
+      <c r="K35" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="79">
         <v>1</v>
       </c>
       <c r="N35" s="40"/>
@@ -6372,7 +6573,7 @@
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
       <c r="T35" s="50">
-        <f t="shared" ref="T34:T49" si="4">H35+K35+N35+Q35</f>
+        <f t="shared" ref="T35:T49" si="4">H35+K35+N35+Q35</f>
         <v>0.5</v>
       </c>
       <c r="U35" s="50">
@@ -6384,12 +6585,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="45">
         <v>0.5</v>
@@ -6403,13 +6604,13 @@
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
-      <c r="K36" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="M36" s="51">
+      <c r="K36" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="79">
         <v>0.5</v>
       </c>
       <c r="N36" s="40"/>
@@ -6431,13 +6632,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="45">
@@ -6452,9 +6653,9 @@
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="51"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
       <c r="N37" s="40"/>
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
@@ -6474,12 +6675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="45">
         <v>3</v>
@@ -6493,11 +6694,15 @@
       <c r="H38" s="50"/>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
-      <c r="K38" s="88">
+      <c r="K38" s="63">
         <v>3</v>
       </c>
-      <c r="L38" s="83"/>
-      <c r="M38" s="51"/>
+      <c r="L38" s="79">
+        <v>3</v>
+      </c>
+      <c r="M38" s="79">
+        <v>2</v>
+      </c>
       <c r="N38" s="40"/>
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
@@ -6510,19 +6715,19 @@
       </c>
       <c r="U38" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V38" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="45">
         <v>2</v>
@@ -6536,11 +6741,15 @@
       <c r="H39" s="50"/>
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
-      <c r="K39" s="88">
+      <c r="K39" s="63">
         <v>2</v>
       </c>
-      <c r="L39" s="83"/>
-      <c r="M39" s="51"/>
+      <c r="L39" s="79">
+        <v>2</v>
+      </c>
+      <c r="M39" s="79">
+        <v>2</v>
+      </c>
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
@@ -6553,19 +6762,19 @@
       </c>
       <c r="U39" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E40" s="45">
         <v>1</v>
@@ -6579,11 +6788,15 @@
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
       <c r="J40" s="50"/>
-      <c r="K40" s="88">
+      <c r="K40" s="63">
         <v>1</v>
       </c>
-      <c r="L40" s="83"/>
-      <c r="M40" s="51"/>
+      <c r="L40" s="79">
+        <v>1</v>
+      </c>
+      <c r="M40" s="79">
+        <v>2</v>
+      </c>
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
       <c r="P40" s="40"/>
@@ -6596,20 +6809,20 @@
       </c>
       <c r="U40" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" s="54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="45">
@@ -6624,9 +6837,9 @@
       <c r="H41" s="50"/>
       <c r="I41" s="50"/>
       <c r="J41" s="50"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="51"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
@@ -6646,13 +6859,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="45">
@@ -6667,9 +6880,9 @@
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
       <c r="J42" s="50"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="51"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
@@ -6689,12 +6902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="45">
         <v>1</v>
@@ -6708,11 +6921,15 @@
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
       <c r="J43" s="50"/>
-      <c r="K43" s="88">
+      <c r="K43" s="63">
         <v>1</v>
       </c>
-      <c r="L43" s="83"/>
-      <c r="M43" s="51"/>
+      <c r="L43" s="79">
+        <v>1</v>
+      </c>
+      <c r="M43" s="79">
+        <v>1</v>
+      </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
@@ -6725,19 +6942,19 @@
       </c>
       <c r="U43" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E44" s="45">
         <v>1</v>
@@ -6751,11 +6968,15 @@
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
-      <c r="K44" s="88">
+      <c r="K44" s="63">
         <v>1</v>
       </c>
-      <c r="L44" s="83"/>
-      <c r="M44" s="51"/>
+      <c r="L44" s="79">
+        <v>1</v>
+      </c>
+      <c r="M44" s="79">
+        <v>1</v>
+      </c>
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
       <c r="P44" s="40"/>
@@ -6768,20 +6989,20 @@
       </c>
       <c r="U44" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="50">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" s="54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="45">
@@ -6796,9 +7017,9 @@
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
       <c r="J45" s="50"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="51"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
       <c r="P45" s="40"/>
@@ -6818,12 +7039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
       <c r="D46" s="55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E46" s="45">
         <v>2</v>
@@ -6837,11 +7058,13 @@
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
-      <c r="K46" s="88">
+      <c r="K46" s="63">
         <v>2</v>
       </c>
-      <c r="L46" s="83"/>
-      <c r="M46" s="51">
+      <c r="L46" s="79">
+        <v>2</v>
+      </c>
+      <c r="M46" s="79">
         <v>2.5</v>
       </c>
       <c r="N46" s="40"/>
@@ -6856,19 +7079,19 @@
       </c>
       <c r="U46" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V46" s="50">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
       <c r="D47" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E47" s="45">
         <v>1</v>
@@ -6882,11 +7105,13 @@
       <c r="H47" s="50"/>
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
-      <c r="K47" s="88">
+      <c r="K47" s="63">
         <v>1</v>
       </c>
-      <c r="L47" s="83"/>
-      <c r="M47" s="51">
+      <c r="L47" s="79">
+        <v>1</v>
+      </c>
+      <c r="M47" s="79">
         <v>1</v>
       </c>
       <c r="N47" s="40"/>
@@ -6901,14 +7126,14 @@
       </c>
       <c r="U47" s="50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="50">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="32"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -6919,9 +7144,9 @@
       <c r="H48" s="50"/>
       <c r="I48" s="50"/>
       <c r="J48" s="50"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
       <c r="N48" s="40"/>
       <c r="O48" s="40"/>
       <c r="P48" s="40"/>
@@ -6941,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -6974,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="24"/>
       <c r="C50" s="42"/>
@@ -6983,50 +7208,50 @@
         <v>20</v>
       </c>
       <c r="G50" s="57"/>
-      <c r="H50" s="84">
+      <c r="H50" s="59">
         <f>SUM(H6:H32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I50" s="85">
+        <v>8.5</v>
+      </c>
+      <c r="I50" s="60">
         <f>SUM(I6:I32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="J50" s="84">
+        <v>8.5</v>
+      </c>
+      <c r="J50" s="59">
         <f>SUM(J6:J32)</f>
-        <v>8.5</v>
-      </c>
-      <c r="K50" s="84">
-        <f>SUM(K34:K47)</f>
-        <v>12.5</v>
-      </c>
-      <c r="L50" s="84">
-        <f>SUM(L34:L47)</f>
-        <v>1.5</v>
-      </c>
-      <c r="M50" s="84">
-        <f>SUM(M34:M47)</f>
-        <v>7</v>
-      </c>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="86"/>
-      <c r="R50" s="86"/>
-      <c r="S50" s="86"/>
-      <c r="T50" s="84">
+        <v>6.75</v>
+      </c>
+      <c r="K50" s="59">
+        <f>SUM(K4:K47)</f>
+        <v>15.5</v>
+      </c>
+      <c r="L50" s="59">
+        <f>SUM(L4:L47)</f>
+        <v>15.5</v>
+      </c>
+      <c r="M50" s="59">
+        <f>SUM(M4:M47)</f>
+        <v>16.75</v>
+      </c>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="59">
         <f>SUM(T4:T49)</f>
-        <v>27</v>
-      </c>
-      <c r="U50" s="84">
+        <v>24</v>
+      </c>
+      <c r="U50" s="59">
         <f>SUM(U4:U49)</f>
-        <v>16</v>
-      </c>
-      <c r="V50" s="84">
+        <v>24</v>
+      </c>
+      <c r="V50" s="59">
         <f>SUM(V4:V49)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="42"/>
       <c r="C51" s="43"/>
@@ -7036,41 +7261,41 @@
       </c>
       <c r="F51" s="53"/>
       <c r="G51" s="53"/>
-      <c r="H51" s="84">
+      <c r="H51" s="59">
         <f>H50</f>
-        <v>14.5</v>
-      </c>
-      <c r="I51" s="85">
+        <v>8.5</v>
+      </c>
+      <c r="I51" s="60">
         <f>I50</f>
-        <v>14.5</v>
-      </c>
-      <c r="J51" s="84">
+        <v>8.5</v>
+      </c>
+      <c r="J51" s="59">
         <f>J50</f>
-        <v>8.5</v>
-      </c>
-      <c r="K51" s="84">
+        <v>6.75</v>
+      </c>
+      <c r="K51" s="59">
         <f>K50+H51</f>
-        <v>27</v>
-      </c>
-      <c r="L51" s="84">
+        <v>24</v>
+      </c>
+      <c r="L51" s="59">
         <f>L50+I51</f>
-        <v>16</v>
-      </c>
-      <c r="M51" s="84">
+        <v>24</v>
+      </c>
+      <c r="M51" s="59">
         <f>M50+J51</f>
-        <v>15.5</v>
-      </c>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="86"/>
-      <c r="S51" s="86"/>
-      <c r="T51" s="86"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="86"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>23.5</v>
+      </c>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="24"/>
       <c r="B52" s="42"/>
       <c r="C52" s="43"/>
@@ -7094,7 +7319,7 @@
       <c r="U52" s="41"/>
       <c r="V52" s="41"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="42"/>
       <c r="C53" s="43"/>
@@ -7118,7 +7343,7 @@
       <c r="U53" s="41"/>
       <c r="V53" s="41"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="24"/>
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
@@ -7142,7 +7367,7 @@
       <c r="U54" s="41"/>
       <c r="V54" s="41"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
@@ -7150,383 +7375,414 @@
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="G56" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="G57" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="G58" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G60" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="64"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G61" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G62" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-    </row>
-    <row r="65" spans="4:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="131"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="137"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="132"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="132"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="132"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+    </row>
+    <row r="65" spans="4:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+    </row>
+    <row r="67" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G67" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="93">
+      <c r="H67" s="68">
         <f>E73-E71</f>
         <v>0</v>
       </c>
-      <c r="I67" s="58" t="s">
+      <c r="I67" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="58"/>
-      <c r="K67" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="62"/>
-    </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="J67" s="80"/>
+      <c r="K67" s="138"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="139"/>
+      <c r="N67" s="139"/>
+      <c r="O67" s="139"/>
+      <c r="P67" s="139"/>
+      <c r="Q67" s="139"/>
+    </row>
+    <row r="68" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G68" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H68" s="93">
+      <c r="H68" s="68">
         <f>E73-E72</f>
-        <v>6</v>
-      </c>
-      <c r="I68" s="58" t="s">
+        <v>1.75</v>
+      </c>
+      <c r="I68" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J68" s="58"/>
-      <c r="K68" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="62"/>
-    </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D69" s="80" t="s">
+      <c r="J68" s="80"/>
+      <c r="K68" s="138"/>
+      <c r="L68" s="139"/>
+      <c r="M68" s="139"/>
+      <c r="N68" s="139"/>
+      <c r="O68" s="139"/>
+      <c r="P68" s="139"/>
+      <c r="Q68" s="139"/>
+    </row>
+    <row r="69" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D69" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="81"/>
+      <c r="E69" s="99"/>
       <c r="G69" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="93">
+      <c r="H69" s="68">
         <f>E73/E71</f>
         <v>1</v>
       </c>
-      <c r="I69" s="58" t="s">
+      <c r="I69" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J69" s="58"/>
-      <c r="K69" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="62"/>
-    </row>
-    <row r="70" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="J69" s="80"/>
+      <c r="K69" s="138"/>
+      <c r="L69" s="139"/>
+      <c r="M69" s="139"/>
+      <c r="N69" s="139"/>
+      <c r="O69" s="139"/>
+      <c r="P69" s="139"/>
+      <c r="Q69" s="139"/>
+    </row>
+    <row r="70" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D70" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E70" s="23">
         <f>T50</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H70" s="93">
+      <c r="H70" s="68">
         <f>E73/E72</f>
-        <v>1.7058823529411764</v>
-      </c>
-      <c r="I70" s="58" t="s">
+        <v>1.2592592592592593</v>
+      </c>
+      <c r="I70" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J70" s="58"/>
-      <c r="K70" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="62"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="138"/>
+      <c r="L70" s="139"/>
+      <c r="M70" s="139"/>
+      <c r="N70" s="139"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
       <c r="R70" s="26"/>
       <c r="S70" s="26"/>
     </row>
-    <row r="71" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D71" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="37">
         <f>H51</f>
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="93">
+      <c r="H71" s="68">
         <f>E70-E73</f>
-        <v>12.5</v>
-      </c>
-      <c r="I71" s="58" t="s">
+        <v>15.5</v>
+      </c>
+      <c r="I71" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J71" s="58"/>
-      <c r="K71" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="62"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="138"/>
+      <c r="L71" s="139"/>
+      <c r="M71" s="139"/>
+      <c r="N71" s="139"/>
+      <c r="O71" s="139"/>
+      <c r="P71" s="139"/>
+      <c r="Q71" s="139"/>
       <c r="R71" s="26"/>
       <c r="S71" s="26"/>
     </row>
-    <row r="72" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D72" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="37">
         <f>J51</f>
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H72" s="93">
+      <c r="H72" s="68">
         <f>(E70-E73)/(H69*H70)</f>
-        <v>7.3275862068965516</v>
-      </c>
-      <c r="I72" s="58" t="s">
+        <v>12.308823529411764</v>
+      </c>
+      <c r="I72" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="J72" s="58"/>
-      <c r="K72" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="62"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="138"/>
+      <c r="L72" s="139"/>
+      <c r="M72" s="139"/>
+      <c r="N72" s="139"/>
+      <c r="O72" s="139"/>
+      <c r="P72" s="139"/>
+      <c r="Q72" s="139"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26"/>
     </row>
-    <row r="73" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D73" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="37">
         <f>I51</f>
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H73" s="93">
+      <c r="H73" s="68">
         <f>E72+(E70-E73)</f>
-        <v>21</v>
-      </c>
-      <c r="I73" s="58" t="s">
+        <v>22.25</v>
+      </c>
+      <c r="I73" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="J73" s="58"/>
-      <c r="K73" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="62"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="138"/>
+      <c r="L73" s="139"/>
+      <c r="M73" s="139"/>
+      <c r="N73" s="139"/>
+      <c r="O73" s="139"/>
+      <c r="P73" s="139"/>
+      <c r="Q73" s="139"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26"/>
     </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:19" x14ac:dyDescent="0.2">
       <c r="F74" s="26"/>
       <c r="G74" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="93">
+      <c r="H74" s="68">
         <f>E70/H70</f>
-        <v>15.827586206896552</v>
-      </c>
-      <c r="I74" s="58" t="s">
+        <v>19.058823529411764</v>
+      </c>
+      <c r="I74" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J74" s="59"/>
-      <c r="K74" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="62"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="138"/>
+      <c r="L74" s="139"/>
+      <c r="M74" s="139"/>
+      <c r="N74" s="139"/>
+      <c r="O74" s="139"/>
+      <c r="P74" s="139"/>
+      <c r="Q74" s="139"/>
       <c r="R74" s="26"/>
       <c r="S74" s="26"/>
     </row>
-    <row r="75" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
       <c r="G75" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H75" s="93">
+      <c r="H75" s="68">
         <f>E72+(E70-E73)/(H69*H70)</f>
-        <v>15.827586206896552</v>
-      </c>
-      <c r="I75" s="58" t="s">
+        <v>19.058823529411764</v>
+      </c>
+      <c r="I75" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J75" s="59"/>
-      <c r="K75" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="62"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="138"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="139"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="139"/>
+      <c r="Q75" s="139"/>
       <c r="R75" s="26"/>
       <c r="S75" s="26"/>
     </row>
-    <row r="76" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
       <c r="G76" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H76" s="93">
+      <c r="H76" s="68">
         <f>(E70-E73)/(E70-E72)</f>
-        <v>0.67567567567567566</v>
-      </c>
-      <c r="I76" s="58" t="s">
+        <v>0.89855072463768115</v>
+      </c>
+      <c r="I76" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="J76" s="59"/>
-      <c r="K76" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="62"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="138"/>
+      <c r="L76" s="139"/>
+      <c r="M76" s="139"/>
+      <c r="N76" s="139"/>
+      <c r="O76" s="139"/>
+      <c r="P76" s="139"/>
+      <c r="Q76" s="139"/>
       <c r="R76" s="26"/>
       <c r="S76" s="26"/>
     </row>
-    <row r="77" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
@@ -7543,7 +7799,7 @@
       <c r="R77" s="26"/>
       <c r="S77" s="26"/>
     </row>
-    <row r="78" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
@@ -7560,7 +7816,7 @@
       <c r="R78" s="26"/>
       <c r="S78" s="26"/>
     </row>
-    <row r="79" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
       <c r="G79" s="36"/>
@@ -7583,7 +7839,7 @@
       <c r="R79" s="26"/>
       <c r="S79" s="26"/>
     </row>
-    <row r="80" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
       <c r="G80" s="36" t="s">
@@ -7591,15 +7847,15 @@
       </c>
       <c r="H80" s="36">
         <f>H51</f>
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="I80" s="36">
         <f>I51</f>
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="J80" s="36">
         <f>J51</f>
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="K80" s="26"/>
       <c r="L80" s="26"/>
@@ -7611,7 +7867,7 @@
       <c r="R80" s="26"/>
       <c r="S80" s="26"/>
     </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
       <c r="G81" s="36" t="s">
@@ -7619,15 +7875,15 @@
       </c>
       <c r="H81" s="36">
         <f>K51</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I81" s="36">
         <f>L51</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J81" s="36">
         <f>M51</f>
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="K81" s="26"/>
       <c r="L81" s="26"/>
@@ -7639,7 +7895,7 @@
       <c r="R81" s="26"/>
       <c r="S81" s="26"/>
     </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
       <c r="G82" s="36" t="s">
@@ -7658,7 +7914,7 @@
       <c r="R82" s="26"/>
       <c r="S82" s="26"/>
     </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
       <c r="G83" s="36" t="s">
@@ -7677,7 +7933,7 @@
       <c r="R83" s="26"/>
       <c r="S83" s="26"/>
     </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
@@ -7694,7 +7950,7 @@
       <c r="R84" s="26"/>
       <c r="S84" s="26"/>
     </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
@@ -7711,7 +7967,7 @@
       <c r="R85" s="26"/>
       <c r="S85" s="26"/>
     </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
@@ -7728,7 +7984,7 @@
       <c r="R86" s="26"/>
       <c r="S86" s="26"/>
     </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -7745,7 +8001,7 @@
       <c r="R87" s="26"/>
       <c r="S87" s="26"/>
     </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
@@ -7791,16 +8047,16 @@
     <mergeCell ref="K70:Q70"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:Q76"/>
     <mergeCell ref="I72:J72"/>
     <mergeCell ref="K72:Q72"/>
     <mergeCell ref="I73:J73"/>
     <mergeCell ref="K73:Q73"/>
     <mergeCell ref="I74:J74"/>
     <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7812,75 +8068,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView showGridLines="0" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.44140625" style="1"/>
-    <col min="8" max="22" width="11.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="22" width="11.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="76" t="s">
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="95"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="73" t="s">
+      <c r="R1" s="95"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="75"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="96"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="87"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
       <c r="H2" s="2">
         <v>44081</v>
       </c>
@@ -7924,18 +8180,18 @@
         <v>44143</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
       <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
@@ -7982,13 +8238,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="31"/>
@@ -8019,17 +8275,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
@@ -8062,15 +8318,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>17</v>
@@ -8109,15 +8365,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>17</v>
@@ -8156,15 +8412,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>17</v>
@@ -8203,15 +8459,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>17</v>
@@ -8250,15 +8506,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>17</v>
@@ -8297,17 +8553,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>17</v>
@@ -8340,15 +8596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>17</v>
@@ -8387,15 +8643,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>17</v>
@@ -8434,15 +8690,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>17</v>
@@ -8481,15 +8737,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="29"/>
       <c r="C15" s="32"/>
       <c r="D15" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>17</v>
@@ -8528,15 +8784,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>17</v>
@@ -8575,17 +8831,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>17</v>
@@ -8618,15 +8874,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>17</v>
@@ -8665,15 +8921,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>17</v>
@@ -8712,15 +8968,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>17</v>
@@ -8759,15 +9015,15 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="29"/>
       <c r="C21" s="32"/>
       <c r="D21" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>17</v>
@@ -8806,15 +9062,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>17</v>
@@ -8853,13 +9109,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="47">
@@ -8896,17 +9152,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>17</v>
@@ -8914,12 +9170,8 @@
       <c r="G24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="50">
-        <v>0.5</v>
-      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="50"/>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
@@ -8932,26 +9184,26 @@
       <c r="S24" s="32"/>
       <c r="T24" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U24" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V24" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="47" t="s">
         <v>110</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>112</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>17</v>
@@ -8990,17 +9242,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>17</v>
@@ -9008,12 +9260,8 @@
       <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="50">
-        <v>1</v>
-      </c>
-      <c r="I26" s="50">
-        <v>1</v>
-      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
@@ -9026,26 +9274,26 @@
       <c r="S26" s="32"/>
       <c r="T26" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>17</v>
@@ -9084,15 +9332,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>17</v>
@@ -9131,17 +9379,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>17</v>
@@ -9149,12 +9397,8 @@
       <c r="G29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="50">
-        <v>1</v>
-      </c>
-      <c r="I29" s="50">
-        <v>1</v>
-      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="50"/>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
@@ -9167,26 +9411,26 @@
       <c r="S29" s="32"/>
       <c r="T29" s="39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>17</v>
@@ -9225,17 +9469,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>17</v>
@@ -9243,12 +9487,8 @@
       <c r="G31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="50">
-        <v>0.5</v>
-      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="50"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -9261,26 +9501,26 @@
       <c r="S31" s="32"/>
       <c r="T31" s="39">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U31" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V31" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>17</v>
@@ -9319,13 +9559,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="45">
@@ -9362,12 +9602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="45">
         <v>0.5</v>
@@ -9381,10 +9621,10 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
-      <c r="K34" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="88">
+      <c r="K34" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="63">
         <v>0.5</v>
       </c>
       <c r="M34" s="51">
@@ -9409,12 +9649,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E35" s="45">
         <v>0.5</v>
@@ -9428,10 +9668,10 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
-      <c r="K35" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="88">
+      <c r="K35" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="63">
         <v>0.5</v>
       </c>
       <c r="M35" s="51">
@@ -9456,12 +9696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="45">
         <v>0.5</v>
@@ -9475,10 +9715,10 @@
       <c r="H36" s="50"/>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
-      <c r="K36" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="88">
+      <c r="K36" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="63">
         <v>0.5</v>
       </c>
       <c r="M36" s="51">
@@ -9503,13 +9743,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="45">
@@ -9524,7 +9764,7 @@
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
-      <c r="K37" s="88"/>
+      <c r="K37" s="63"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
       <c r="N37" s="40"/>
@@ -9546,12 +9786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="45">
         <v>3</v>
@@ -9565,7 +9805,7 @@
       <c r="H38" s="50"/>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
-      <c r="K38" s="88">
+      <c r="K38" s="63">
         <v>3</v>
       </c>
       <c r="L38" s="51"/>
@@ -9589,12 +9829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="45">
         <v>2</v>
@@ -9608,7 +9848,7 @@
       <c r="H39" s="50"/>
       <c r="I39" s="50"/>
       <c r="J39" s="50"/>
-      <c r="K39" s="88">
+      <c r="K39" s="63">
         <v>2</v>
       </c>
       <c r="L39" s="51"/>
@@ -9632,12 +9872,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E40" s="45">
         <v>1</v>
@@ -9651,7 +9891,7 @@
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
       <c r="J40" s="50"/>
-      <c r="K40" s="88">
+      <c r="K40" s="63">
         <v>1</v>
       </c>
       <c r="L40" s="51"/>
@@ -9675,13 +9915,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" s="54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="45">
@@ -9696,7 +9936,7 @@
       <c r="H41" s="50"/>
       <c r="I41" s="50"/>
       <c r="J41" s="50"/>
-      <c r="K41" s="88"/>
+      <c r="K41" s="63"/>
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
       <c r="N41" s="40"/>
@@ -9718,13 +9958,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="45">
@@ -9739,7 +9979,7 @@
       <c r="H42" s="50"/>
       <c r="I42" s="50"/>
       <c r="J42" s="50"/>
-      <c r="K42" s="88"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
       <c r="N42" s="40"/>
@@ -9761,12 +10001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
       <c r="D43" s="55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="45">
         <v>1</v>
@@ -9780,7 +10020,7 @@
       <c r="H43" s="50"/>
       <c r="I43" s="50"/>
       <c r="J43" s="50"/>
-      <c r="K43" s="88">
+      <c r="K43" s="63">
         <v>1</v>
       </c>
       <c r="L43" s="51"/>
@@ -9804,12 +10044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E44" s="45">
         <v>1</v>
@@ -9823,7 +10063,7 @@
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
-      <c r="K44" s="88">
+      <c r="K44" s="63">
         <v>1</v>
       </c>
       <c r="L44" s="51"/>
@@ -9847,13 +10087,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" s="54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="45">
@@ -9868,7 +10108,7 @@
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
       <c r="J45" s="50"/>
-      <c r="K45" s="88"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="51"/>
       <c r="M45" s="51"/>
       <c r="N45" s="40"/>
@@ -9890,12 +10130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="32"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
       <c r="D46" s="55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E46" s="45">
         <v>2</v>
@@ -9909,7 +10149,7 @@
       <c r="H46" s="50"/>
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
-      <c r="K46" s="88">
+      <c r="K46" s="63">
         <v>2</v>
       </c>
       <c r="L46" s="51"/>
@@ -9935,12 +10175,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="32"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
       <c r="D47" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E47" s="45">
         <v>1</v>
@@ -9954,7 +10194,7 @@
       <c r="H47" s="50"/>
       <c r="I47" s="50"/>
       <c r="J47" s="50"/>
-      <c r="K47" s="88">
+      <c r="K47" s="63">
         <v>1</v>
       </c>
       <c r="L47" s="51"/>
@@ -9980,13 +10220,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="32"/>
       <c r="B48" s="14">
         <v>1.2</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="45">
@@ -10023,13 +10263,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="32"/>
       <c r="B49" s="54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="45">
@@ -10066,12 +10306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E50" s="45">
         <v>0.5</v>
@@ -10107,12 +10347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="32"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
       <c r="D51" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E51" s="45">
         <v>2</v>
@@ -10148,12 +10388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="32"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E52" s="45">
         <v>2</v>
@@ -10189,13 +10429,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="32"/>
       <c r="B53" s="14">
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="45">
@@ -10232,13 +10472,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="32"/>
       <c r="B54" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="45">
@@ -10275,12 +10515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="32"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E55" s="45">
         <v>1</v>
@@ -10316,12 +10556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="32"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E56" s="45">
         <v>1</v>
@@ -10357,13 +10597,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="32"/>
       <c r="B57" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" s="55"/>
       <c r="E57" s="45">
@@ -10400,13 +10640,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="32"/>
       <c r="B58" s="54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="45">
@@ -10443,12 +10683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="32"/>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E59" s="45">
         <v>0.5</v>
@@ -10484,12 +10724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="32"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E60" s="45">
         <v>0.5</v>
@@ -10525,12 +10765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="32"/>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E61" s="45">
         <v>0.5</v>
@@ -10566,12 +10806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="32"/>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E62" s="45">
         <v>0.5</v>
@@ -10607,13 +10847,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="32"/>
       <c r="B63" s="54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D63" s="55"/>
       <c r="E63" s="45">
@@ -10650,12 +10890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="32"/>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E64" s="45">
         <v>1</v>
@@ -10691,12 +10931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="32"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E65" s="45">
         <v>1</v>
@@ -10732,13 +10972,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
       <c r="B66" s="54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="45">
@@ -10775,16 +11015,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="32"/>
       <c r="B67" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E67" s="45">
         <v>2</v>
@@ -10820,12 +11060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="32"/>
       <c r="B68" s="14"/>
       <c r="C68" s="15"/>
       <c r="D68" s="55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E68" s="45">
         <v>0.5</v>
@@ -10861,11 +11101,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="32"/>
       <c r="C69" s="15"/>
       <c r="D69" s="55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E69" s="45">
         <v>0.5</v>
@@ -10901,13 +11141,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
       <c r="B70" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="45">
@@ -10944,12 +11184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="32"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E71" s="45">
         <v>0.5</v>
@@ -10985,12 +11225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="32"/>
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E72" s="45">
         <v>0.5</v>
@@ -11026,13 +11266,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="32"/>
       <c r="B73" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="45">
@@ -11069,12 +11309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="32"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E74" s="45">
         <v>0.5</v>
@@ -11110,12 +11350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E75" s="45">
         <v>2</v>
@@ -11151,12 +11391,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E76" s="45">
         <v>2</v>
@@ -11192,12 +11432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E77" s="45">
         <v>0.5</v>
@@ -11233,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="32"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -11243,59 +11483,59 @@
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="53"/>
-      <c r="H78" s="84">
+      <c r="H78" s="59">
         <f>SUM(H6:H32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="I78" s="85">
+        <v>11.5</v>
+      </c>
+      <c r="I78" s="60">
         <f>SUM(I6:I32)</f>
-        <v>14.5</v>
-      </c>
-      <c r="J78" s="84">
+        <v>11.5</v>
+      </c>
+      <c r="J78" s="59">
         <f>SUM(J6:J32)</f>
         <v>8.5</v>
       </c>
-      <c r="K78" s="84">
+      <c r="K78" s="59">
         <f>SUM(K34:K47)</f>
         <v>12.5</v>
       </c>
-      <c r="L78" s="84">
+      <c r="L78" s="59">
         <f>SUM(L34:L47)</f>
         <v>1.5</v>
       </c>
-      <c r="M78" s="84">
+      <c r="M78" s="59">
         <f>SUM(M34:M47)</f>
         <v>7</v>
       </c>
-      <c r="N78" s="84">
+      <c r="N78" s="59">
         <f>SUM(N48:N77)</f>
         <v>0</v>
       </c>
-      <c r="O78" s="84">
+      <c r="O78" s="59">
         <f>SUM(O48:O77)</f>
         <v>0</v>
       </c>
-      <c r="P78" s="84">
+      <c r="P78" s="59">
         <f>SUM(P48:P77)</f>
         <v>0</v>
       </c>
-      <c r="Q78" s="86"/>
-      <c r="R78" s="86"/>
-      <c r="S78" s="86"/>
-      <c r="T78" s="84">
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="59">
         <f>SUM(T4:T77)</f>
-        <v>27</v>
-      </c>
-      <c r="U78" s="84">
+        <v>24</v>
+      </c>
+      <c r="U78" s="59">
         <f>SUM(U4:U77)</f>
-        <v>16</v>
-      </c>
-      <c r="V78" s="84">
+        <v>13</v>
+      </c>
+      <c r="V78" s="59">
         <f>SUM(V4:V77)</f>
         <v>15.5</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="32"/>
       <c r="B79" s="14"/>
       <c r="C79" s="43"/>
@@ -11305,50 +11545,50 @@
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
-      <c r="H79" s="89">
+      <c r="H79" s="64">
         <f>H78</f>
-        <v>14.5</v>
-      </c>
-      <c r="I79" s="90">
+        <v>11.5</v>
+      </c>
+      <c r="I79" s="65">
         <f>I78</f>
-        <v>14.5</v>
-      </c>
-      <c r="J79" s="89">
+        <v>11.5</v>
+      </c>
+      <c r="J79" s="64">
         <f>J78</f>
         <v>8.5</v>
       </c>
-      <c r="K79" s="89">
-        <f>K78+H79</f>
-        <v>27</v>
-      </c>
-      <c r="L79" s="89">
-        <f>L78+I79</f>
-        <v>16</v>
-      </c>
-      <c r="M79" s="89">
-        <f>M78+J79</f>
+      <c r="K79" s="64">
+        <f t="shared" ref="K79:P79" si="6">K78+H79</f>
+        <v>24</v>
+      </c>
+      <c r="L79" s="64">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="M79" s="64">
+        <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="N79" s="89">
-        <f>N78+K79</f>
-        <v>27</v>
-      </c>
-      <c r="O79" s="89">
-        <f>O78+L79</f>
-        <v>16</v>
-      </c>
-      <c r="P79" s="89">
-        <f>P78+M79</f>
+      <c r="N79" s="64">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="O79" s="64">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="P79" s="64">
+        <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="91"/>
-      <c r="T79" s="92"/>
-      <c r="U79" s="91"/>
-      <c r="V79" s="91"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q79" s="66"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="66"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="66"/>
+      <c r="V79" s="66"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="55"/>
       <c r="B80" s="32"/>
       <c r="C80" s="43"/>
@@ -11372,7 +11612,7 @@
       <c r="U80" s="41"/>
       <c r="V80" s="41"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="24"/>
       <c r="B81" s="42"/>
       <c r="C81" s="43"/>
@@ -11396,7 +11636,7 @@
       <c r="U81" s="41"/>
       <c r="V81" s="41"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="24"/>
       <c r="B82" s="42"/>
       <c r="C82" s="43"/>
@@ -11420,7 +11660,7 @@
       <c r="U82" s="41"/>
       <c r="V82" s="41"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="24"/>
       <c r="B83" s="42"/>
       <c r="C83" s="43"/>
@@ -11429,7 +11669,7 @@
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="24"/>
       <c r="B84" s="42"/>
       <c r="C84" s="51"/>
@@ -11445,7 +11685,7 @@
       <c r="L84" s="27"/>
       <c r="M84" s="27"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="42"/>
       <c r="C85" s="34"/>
@@ -11461,7 +11701,7 @@
       <c r="L85" s="27"/>
       <c r="M85" s="27"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="51" t="s">
         <v>22</v>
       </c>
@@ -11479,7 +11719,7 @@
       <c r="L86" s="27"/>
       <c r="M86" s="27"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="33" t="s">
         <v>56</v>
       </c>
@@ -11493,20 +11733,20 @@
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B88" s="34"/>
-      <c r="G88" s="64" t="s">
+      <c r="G88" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="H88" s="64"/>
+      <c r="H88" s="85"/>
       <c r="I88" s="27"/>
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="33" t="s">
         <v>24</v>
       </c>
@@ -11521,7 +11761,7 @@
       <c r="L89" s="27"/>
       <c r="M89" s="27"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G90" s="27" t="s">
         <v>30</v>
       </c>
@@ -11532,141 +11772,141 @@
       <c r="L90" s="27"/>
       <c r="M90" s="27"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G95" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H95" s="93">
+      <c r="H95" s="68">
         <f>E101-E99</f>
         <v>-11</v>
       </c>
-      <c r="I95" s="58" t="s">
+      <c r="I95" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J95" s="58"/>
-      <c r="K95" s="60" t="s">
+      <c r="J95" s="80"/>
+      <c r="K95" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="L95" s="61"/>
-      <c r="M95" s="61"/>
-      <c r="N95" s="61"/>
-      <c r="O95" s="61"/>
-      <c r="P95" s="61"/>
-      <c r="Q95" s="62"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L95" s="83"/>
+      <c r="M95" s="83"/>
+      <c r="N95" s="83"/>
+      <c r="O95" s="83"/>
+      <c r="P95" s="83"/>
+      <c r="Q95" s="84"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G96" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H96" s="93">
+      <c r="H96" s="68">
         <f>E101-E100</f>
-        <v>0.5</v>
-      </c>
-      <c r="I96" s="58" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="I96" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="J96" s="58"/>
-      <c r="K96" s="60" t="s">
+      <c r="J96" s="80"/>
+      <c r="K96" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="L96" s="61"/>
-      <c r="M96" s="61"/>
-      <c r="N96" s="61"/>
-      <c r="O96" s="61"/>
-      <c r="P96" s="61"/>
-      <c r="Q96" s="62"/>
-    </row>
-    <row r="97" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D97" s="80" t="s">
+      <c r="L96" s="83"/>
+      <c r="M96" s="83"/>
+      <c r="N96" s="83"/>
+      <c r="O96" s="83"/>
+      <c r="P96" s="83"/>
+      <c r="Q96" s="84"/>
+    </row>
+    <row r="97" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D97" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="81"/>
+      <c r="E97" s="99"/>
       <c r="G97" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="93">
+      <c r="H97" s="68">
         <f>E101/E99</f>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="I97" s="58" t="s">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I97" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="J97" s="58"/>
-      <c r="K97" s="60" t="s">
+      <c r="J97" s="80"/>
+      <c r="K97" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="61"/>
-      <c r="O97" s="61"/>
-      <c r="P97" s="61"/>
-      <c r="Q97" s="62"/>
-    </row>
-    <row r="98" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="L97" s="83"/>
+      <c r="M97" s="83"/>
+      <c r="N97" s="83"/>
+      <c r="O97" s="83"/>
+      <c r="P97" s="83"/>
+      <c r="Q97" s="84"/>
+    </row>
+    <row r="98" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D98" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E98" s="23">
         <f>T78</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H98" s="93">
+      <c r="H98" s="68">
         <f>E101/E100</f>
-        <v>1.032258064516129</v>
-      </c>
-      <c r="I98" s="58" t="s">
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="I98" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J98" s="58"/>
-      <c r="K98" s="60" t="s">
+      <c r="J98" s="80"/>
+      <c r="K98" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="L98" s="61"/>
-      <c r="M98" s="61"/>
-      <c r="N98" s="61"/>
-      <c r="O98" s="61"/>
-      <c r="P98" s="61"/>
-      <c r="Q98" s="62"/>
+      <c r="L98" s="83"/>
+      <c r="M98" s="83"/>
+      <c r="N98" s="83"/>
+      <c r="O98" s="83"/>
+      <c r="P98" s="83"/>
+      <c r="Q98" s="84"/>
       <c r="R98" s="26"/>
       <c r="S98" s="26"/>
     </row>
-    <row r="99" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D99" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="37">
         <f>K79</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H99" s="93">
+      <c r="H99" s="68">
         <f>E98-E101</f>
         <v>11</v>
       </c>
-      <c r="I99" s="58" t="s">
+      <c r="I99" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J99" s="58"/>
-      <c r="K99" s="60" t="s">
+      <c r="J99" s="80"/>
+      <c r="K99" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="L99" s="61"/>
-      <c r="M99" s="61"/>
-      <c r="N99" s="61"/>
-      <c r="O99" s="61"/>
-      <c r="P99" s="61"/>
-      <c r="Q99" s="62"/>
+      <c r="L99" s="83"/>
+      <c r="M99" s="83"/>
+      <c r="N99" s="83"/>
+      <c r="O99" s="83"/>
+      <c r="P99" s="83"/>
+      <c r="Q99" s="84"/>
       <c r="R99" s="26"/>
       <c r="S99" s="26"/>
     </row>
-    <row r="100" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D100" s="38" t="s">
         <v>14</v>
       </c>
@@ -11678,137 +11918,137 @@
       <c r="G100" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H100" s="93">
+      <c r="H100" s="68">
         <f>(E98-E101)/(H97*H98)</f>
-        <v>17.982421875</v>
-      </c>
-      <c r="I100" s="58" t="s">
+        <v>24.213017751479292</v>
+      </c>
+      <c r="I100" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="J100" s="58"/>
-      <c r="K100" s="60" t="s">
+      <c r="J100" s="80"/>
+      <c r="K100" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L100" s="61"/>
-      <c r="M100" s="61"/>
-      <c r="N100" s="61"/>
-      <c r="O100" s="61"/>
-      <c r="P100" s="61"/>
-      <c r="Q100" s="62"/>
+      <c r="L100" s="83"/>
+      <c r="M100" s="83"/>
+      <c r="N100" s="83"/>
+      <c r="O100" s="83"/>
+      <c r="P100" s="83"/>
+      <c r="Q100" s="84"/>
       <c r="R100" s="26"/>
       <c r="S100" s="26"/>
     </row>
-    <row r="101" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D101" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="37">
         <f>L79</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H101" s="93">
+      <c r="H101" s="68">
         <f>E100+(E98-E101)</f>
         <v>26.5</v>
       </c>
-      <c r="I101" s="58" t="s">
+      <c r="I101" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="60" t="s">
+      <c r="J101" s="80"/>
+      <c r="K101" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="L101" s="61"/>
-      <c r="M101" s="61"/>
-      <c r="N101" s="61"/>
-      <c r="O101" s="61"/>
-      <c r="P101" s="61"/>
-      <c r="Q101" s="62"/>
+      <c r="L101" s="83"/>
+      <c r="M101" s="83"/>
+      <c r="N101" s="83"/>
+      <c r="O101" s="83"/>
+      <c r="P101" s="83"/>
+      <c r="Q101" s="84"/>
       <c r="R101" s="26"/>
       <c r="S101" s="26"/>
     </row>
-    <row r="102" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E102" s="26"/>
       <c r="F102" s="26"/>
       <c r="G102" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H102" s="93">
+      <c r="H102" s="68">
         <f>E98/H98</f>
-        <v>26.15625</v>
-      </c>
-      <c r="I102" s="58" t="s">
+        <v>28.615384615384613</v>
+      </c>
+      <c r="I102" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J102" s="59"/>
-      <c r="K102" s="60" t="s">
+      <c r="J102" s="81"/>
+      <c r="K102" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L102" s="61"/>
-      <c r="M102" s="61"/>
-      <c r="N102" s="61"/>
-      <c r="O102" s="61"/>
-      <c r="P102" s="61"/>
-      <c r="Q102" s="62"/>
+      <c r="L102" s="83"/>
+      <c r="M102" s="83"/>
+      <c r="N102" s="83"/>
+      <c r="O102" s="83"/>
+      <c r="P102" s="83"/>
+      <c r="Q102" s="84"/>
       <c r="R102" s="26"/>
       <c r="S102" s="26"/>
     </row>
-    <row r="103" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
       <c r="G103" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H103" s="94">
+      <c r="H103" s="69">
         <f>E100+(E98-E101)/(H97*H98)</f>
-        <v>33.482421875</v>
-      </c>
-      <c r="I103" s="58" t="s">
+        <v>39.713017751479292</v>
+      </c>
+      <c r="I103" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="J103" s="59"/>
-      <c r="K103" s="60" t="s">
+      <c r="J103" s="81"/>
+      <c r="K103" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="L103" s="61"/>
-      <c r="M103" s="61"/>
-      <c r="N103" s="61"/>
-      <c r="O103" s="61"/>
-      <c r="P103" s="61"/>
-      <c r="Q103" s="62"/>
+      <c r="L103" s="83"/>
+      <c r="M103" s="83"/>
+      <c r="N103" s="83"/>
+      <c r="O103" s="83"/>
+      <c r="P103" s="83"/>
+      <c r="Q103" s="84"/>
       <c r="R103" s="26"/>
       <c r="S103" s="26"/>
     </row>
-    <row r="104" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E104" s="26"/>
       <c r="F104" s="26"/>
       <c r="G104" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H104" s="93">
+      <c r="H104" s="68">
         <f>(E98-E101)/(E98-E100)</f>
-        <v>0.95652173913043481</v>
-      </c>
-      <c r="I104" s="58" t="s">
+        <v>1.2941176470588236</v>
+      </c>
+      <c r="I104" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="J104" s="59"/>
-      <c r="K104" s="60" t="s">
+      <c r="J104" s="81"/>
+      <c r="K104" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="L104" s="61"/>
-      <c r="M104" s="61"/>
-      <c r="N104" s="61"/>
-      <c r="O104" s="61"/>
-      <c r="P104" s="61"/>
-      <c r="Q104" s="62"/>
+      <c r="L104" s="83"/>
+      <c r="M104" s="83"/>
+      <c r="N104" s="83"/>
+      <c r="O104" s="83"/>
+      <c r="P104" s="83"/>
+      <c r="Q104" s="84"/>
       <c r="R104" s="26"/>
       <c r="S104" s="26"/>
     </row>
-    <row r="105" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E105" s="26"/>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -11825,7 +12065,7 @@
       <c r="R105" s="26"/>
       <c r="S105" s="26"/>
     </row>
-    <row r="106" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -11842,7 +12082,7 @@
       <c r="R106" s="26"/>
       <c r="S106" s="26"/>
     </row>
-    <row r="107" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
@@ -11859,7 +12099,7 @@
       <c r="R107" s="26"/>
       <c r="S107" s="26"/>
     </row>
-    <row r="108" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E108" s="26"/>
       <c r="F108" s="26"/>
       <c r="G108" s="36"/>
@@ -11882,7 +12122,7 @@
       <c r="R108" s="26"/>
       <c r="S108" s="26"/>
     </row>
-    <row r="109" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E109" s="26"/>
       <c r="F109" s="26"/>
       <c r="G109" s="36" t="s">
@@ -11890,11 +12130,11 @@
       </c>
       <c r="H109" s="36">
         <f>H79</f>
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="I109" s="36">
         <f>I79</f>
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="J109" s="36">
         <f>J79</f>
@@ -11910,7 +12150,7 @@
       <c r="R109" s="26"/>
       <c r="S109" s="26"/>
     </row>
-    <row r="110" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E110" s="26"/>
       <c r="F110" s="26"/>
       <c r="G110" s="36" t="s">
@@ -11918,11 +12158,11 @@
       </c>
       <c r="H110" s="36">
         <f>K79</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I110" s="36">
         <f>L79</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J110" s="36">
         <f>M79</f>
@@ -11938,7 +12178,7 @@
       <c r="R110" s="26"/>
       <c r="S110" s="26"/>
     </row>
-    <row r="111" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E111" s="26"/>
       <c r="F111" s="26"/>
       <c r="G111" s="36" t="s">
@@ -11946,11 +12186,11 @@
       </c>
       <c r="H111" s="36">
         <f>N79</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I111" s="36">
         <f>O79</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J111" s="36">
         <f>P79</f>
@@ -11966,7 +12206,7 @@
       <c r="R111" s="26"/>
       <c r="S111" s="26"/>
     </row>
-    <row r="112" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
       <c r="G112" s="36" t="s">
@@ -11985,7 +12225,7 @@
       <c r="R112" s="26"/>
       <c r="S112" s="26"/>
     </row>
-    <row r="113" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E113" s="26"/>
       <c r="F113" s="26"/>
       <c r="G113" s="26"/>
@@ -12002,7 +12242,7 @@
       <c r="R113" s="26"/>
       <c r="S113" s="26"/>
     </row>
-    <row r="114" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E114" s="26"/>
       <c r="F114" s="26"/>
       <c r="G114" s="26"/>
@@ -12019,7 +12259,7 @@
       <c r="R114" s="26"/>
       <c r="S114" s="26"/>
     </row>
-    <row r="115" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E115" s="26"/>
       <c r="F115" s="26"/>
       <c r="G115" s="26"/>
@@ -12036,7 +12276,7 @@
       <c r="R115" s="26"/>
       <c r="S115" s="26"/>
     </row>
-    <row r="116" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E116" s="26"/>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -12099,572 +12339,595 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="98" t="s">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="B3" s="128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="130"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="B4" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="130"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-    </row>
-    <row r="25" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="106" t="s">
+      <c r="B5" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="111"/>
-    </row>
-    <row r="28" spans="2:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-    </row>
-    <row r="29" spans="2:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-    </row>
-    <row r="30" spans="2:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="128" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
+    </row>
+    <row r="25" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="109"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="112"/>
+    </row>
+    <row r="28" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="115"/>
+    </row>
+    <row r="29" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+    </row>
+    <row r="30" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-    </row>
-    <row r="31" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-    </row>
-    <row r="32" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-    </row>
-    <row r="33" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="97"/>
-    </row>
-    <row r="34" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="115" t="s">
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="118"/>
+    </row>
+    <row r="31" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+    </row>
+    <row r="32" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+    </row>
+    <row r="33" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="71"/>
+    </row>
+    <row r="34" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="103"/>
+      <c r="D34" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="116"/>
-      <c r="D34" s="115" t="s">
+      <c r="E34" s="103"/>
+      <c r="F34" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="103"/>
+    </row>
+    <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="123">
+        <v>24</v>
+      </c>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="105"/>
+    </row>
+    <row r="36" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="120">
+        <v>8.5</v>
+      </c>
+      <c r="D36" s="121"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="105"/>
+    </row>
+    <row r="37" spans="2:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="73">
+        <v>6.75</v>
+      </c>
+      <c r="D37" s="104"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="142"/>
+    </row>
+    <row r="38" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="105"/>
+    </row>
+    <row r="39" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="73">
+        <v>0</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="142"/>
+    </row>
+    <row r="40" spans="2:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="73">
+        <v>1.75</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="101"/>
+      <c r="F40" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="142"/>
+    </row>
+    <row r="41" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="73">
+        <v>1</v>
+      </c>
+      <c r="D41" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="101"/>
+      <c r="F41" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="142"/>
+    </row>
+    <row r="42" spans="2:11" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="73">
+        <v>1.26</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="101"/>
+      <c r="F42" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="142"/>
+    </row>
+    <row r="43" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="73">
+        <v>15.5</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="101"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="105"/>
+    </row>
+    <row r="44" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="73">
+        <v>12.31</v>
+      </c>
+      <c r="D44" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="101"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="105"/>
+    </row>
+    <row r="45" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="73">
+        <v>22.25</v>
+      </c>
+      <c r="D45" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="101"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="105"/>
+    </row>
+    <row r="46" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="73">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D46" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="101"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="105"/>
+    </row>
+    <row r="47" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="73">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="D47" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="101"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="105"/>
+    </row>
+    <row r="48" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="73">
+        <v>0.9</v>
+      </c>
+      <c r="D48" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="101"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="105"/>
+    </row>
+    <row r="49" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="105"/>
+    </row>
+    <row r="50" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="109"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="112"/>
+    </row>
+    <row r="52" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="115"/>
+    </row>
+    <row r="53" spans="2:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+    </row>
+    <row r="54" spans="2:11" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="116"/>
-      <c r="F34" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="122"/>
-    </row>
-    <row r="35" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="105">
-        <v>360</v>
-      </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="103"/>
-    </row>
-    <row r="36" spans="2:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="105">
-        <v>320</v>
-      </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="103"/>
-    </row>
-    <row r="37" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="105">
-        <v>310</v>
-      </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="103"/>
-    </row>
-    <row r="38" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="105">
-        <v>260</v>
-      </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
-    </row>
-    <row r="39" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="105">
-        <v>-60</v>
-      </c>
-      <c r="D39" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
-    </row>
-    <row r="40" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="105">
-        <v>-50</v>
-      </c>
-      <c r="D40" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="118"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
-    </row>
-    <row r="41" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="105">
-        <v>0.81</v>
-      </c>
-      <c r="D41" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="118"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
-    </row>
-    <row r="42" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="105">
-        <v>0.84</v>
-      </c>
-      <c r="D42" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="118"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="103"/>
-    </row>
-    <row r="43" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="105">
-        <v>100</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="118"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="103"/>
-    </row>
-    <row r="44" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="105">
-        <v>146.75</v>
-      </c>
-      <c r="D44" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="118"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="103"/>
-    </row>
-    <row r="45" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="105">
-        <v>410</v>
-      </c>
-      <c r="D45" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="103"/>
-    </row>
-    <row r="46" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="105">
-        <v>429.23</v>
-      </c>
-      <c r="D46" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="118"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="103"/>
-    </row>
-    <row r="47" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="105">
-        <v>456.75</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="103"/>
-    </row>
-    <row r="48" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="105">
-        <v>2</v>
-      </c>
-      <c r="D48" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="118"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="103"/>
-    </row>
-    <row r="49" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="103"/>
-    </row>
-    <row r="50" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="108"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="111"/>
-    </row>
-    <row r="52" spans="2:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="114"/>
-    </row>
-    <row r="53" spans="2:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-    </row>
-    <row r="54" spans="2:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="97"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-    </row>
-    <row r="55" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="J55" s="126"/>
-      <c r="K55" s="127"/>
-    </row>
-    <row r="56" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="124"/>
-      <c r="J56" s="124"/>
-    </row>
-    <row r="57" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J55" s="77"/>
+      <c r="K55" s="78"/>
+    </row>
+    <row r="56" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="75"/>
+      <c r="J56" s="75"/>
+    </row>
+    <row r="57" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H57" s="1"/>
-      <c r="I57" s="123"/>
+      <c r="I57" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="F48:K48"/>
+  <mergeCells count="39">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F37:K37"/>
     <mergeCell ref="F49:K49"/>
     <mergeCell ref="B50:K52"/>
     <mergeCell ref="B26:K28"/>
     <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F43:K43"/>
     <mergeCell ref="F44:K44"/>
     <mergeCell ref="F45:K45"/>
     <mergeCell ref="F46:K46"/>
     <mergeCell ref="F47:K47"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F41:K41"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>